--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,36 +40,36 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>kill</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -91,46 +91,58 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
+    <t>good</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>strong</t>
   </si>
   <si>
     <t>heroes</t>
@@ -139,46 +151,52 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>save</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>yes</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>giving</t>
   </si>
   <si>
     <t>share</t>
@@ -187,16 +205,19 @@
     <t>alert</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -554,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.7602739726027398</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K3">
-        <v>0.9333333333333333</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L3">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="M3">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7568493150684932</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C4">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +768,13 @@
         <v>27</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5555555555555556</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,13 +868,13 @@
         <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8433420365535248</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5526315789473685</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K8">
-        <v>0.839622641509434</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5294117647058824</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4666666666666667</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4021164021164021</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>312</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>312</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3783783783783784</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.79375</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3372093023255814</v>
+        <v>0.3294573643410852</v>
       </c>
       <c r="C13">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D13">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3333333333333333</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3050847457627119</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.24</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2080536912751678</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1365,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.05555555555555555</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K18">
-        <v>0.7291666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1423,13 +1444,13 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>0.7037037037037037</v>
+        <v>0.7734375</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1441,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1449,13 +1470,13 @@
         <v>42</v>
       </c>
       <c r="K20">
-        <v>0.696969696969697</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1467,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1475,13 +1496,13 @@
         <v>43</v>
       </c>
       <c r="K21">
-        <v>0.6744186046511628</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1493,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1501,13 +1522,13 @@
         <v>44</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1519,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1527,13 +1548,13 @@
         <v>45</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1553,13 +1574,13 @@
         <v>46</v>
       </c>
       <c r="K24">
-        <v>0.6363636363636364</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1579,13 +1600,13 @@
         <v>47</v>
       </c>
       <c r="K25">
-        <v>0.6235294117647059</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L25">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1597,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>128</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1605,13 +1626,13 @@
         <v>48</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1623,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1631,13 +1652,13 @@
         <v>49</v>
       </c>
       <c r="K27">
-        <v>0.5846153846153846</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1649,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1657,13 +1678,13 @@
         <v>50</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1675,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1683,13 +1704,13 @@
         <v>51</v>
       </c>
       <c r="K29">
-        <v>0.5648535564853556</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L29">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M29">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1701,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1709,13 +1730,13 @@
         <v>52</v>
       </c>
       <c r="K30">
-        <v>0.5531914893617021</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L30">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1727,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1735,13 +1756,13 @@
         <v>53</v>
       </c>
       <c r="K31">
-        <v>0.5525423728813559</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="M31">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1753,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1761,13 +1782,13 @@
         <v>54</v>
       </c>
       <c r="K32">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1779,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1787,13 +1808,13 @@
         <v>55</v>
       </c>
       <c r="K33">
-        <v>0.5142857142857142</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1805,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1813,13 +1834,13 @@
         <v>56</v>
       </c>
       <c r="K34">
-        <v>0.3571428571428572</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1831,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>27</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1839,13 +1860,13 @@
         <v>57</v>
       </c>
       <c r="K35">
-        <v>0.3529411764705883</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1857,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1865,13 +1886,13 @@
         <v>58</v>
       </c>
       <c r="K36">
-        <v>0.3370786516853932</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1883,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1891,13 +1912,13 @@
         <v>59</v>
       </c>
       <c r="K37">
-        <v>0.2328767123287671</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1909,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1917,25 +1938,207 @@
         <v>60</v>
       </c>
       <c r="K38">
-        <v>0.2307692307692308</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L38">
+        <v>16</v>
+      </c>
+      <c r="M38">
+        <v>16</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39">
+        <v>0.4714285714285714</v>
+      </c>
+      <c r="L39">
+        <v>33</v>
+      </c>
+      <c r="M39">
+        <v>33</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L40">
         <v>18</v>
       </c>
-      <c r="M38">
+      <c r="M40">
         <v>18</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>60</v>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41">
+        <v>0.3820224719101123</v>
+      </c>
+      <c r="L41">
+        <v>34</v>
+      </c>
+      <c r="M41">
+        <v>34</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L42">
+        <v>17</v>
+      </c>
+      <c r="M42">
+        <v>17</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="L43">
+        <v>23</v>
+      </c>
+      <c r="M43">
+        <v>23</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44">
+        <v>0.2465753424657534</v>
+      </c>
+      <c r="L44">
+        <v>18</v>
+      </c>
+      <c r="M44">
+        <v>18</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45">
+        <v>0.2372881355932203</v>
+      </c>
+      <c r="L45">
+        <v>14</v>
+      </c>
+      <c r="M45">
+        <v>14</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
